--- a/swapi_data.xlsx
+++ b/swapi_data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,30 +483,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>vehicles</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>starships</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>created</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>edited</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>full_name</t>
         </is>
@@ -560,30 +570,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/14/', 'https://swapi.dev/api/vehicles/30/']</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/12/', 'https://swapi.dev/api/starships/22/']</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2014-12-09T13:50:51.644000Z</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:56.891000Z</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/1/</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Luke Skywalker</t>
         </is>
@@ -637,30 +657,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/2/']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2014-12-10T15:10:51.357000Z</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.309000Z</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/2/</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>C-3PO</t>
         </is>
@@ -714,30 +744,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/2/']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2014-12-10T15:11:50.376000Z</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.311000Z</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/3/</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>R2-D2</t>
         </is>
@@ -791,30 +831,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/13/']</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2014-12-10T15:18:20.704000Z</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.313000Z</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/4/</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Darth Vader</t>
         </is>
@@ -868,30 +918,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/30/']</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2014-12-10T15:20:09.791000Z</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.315000Z</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/5/</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Leia Organa</t>
         </is>
@@ -945,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -955,20 +1015,30 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2014-12-10T15:52:14.024000Z</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.317000Z</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/6/</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Owen Lars</t>
         </is>
@@ -1022,7 +1092,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1032,20 +1102,30 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>2014-12-10T15:53:41.121000Z</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.319000Z</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/7/</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Beru Whitesun lars</t>
         </is>
@@ -1099,30 +1179,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/2/']</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>2014-12-10T15:57:50.959000Z</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.321000Z</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/8/</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>R5-D4</t>
         </is>
@@ -1176,30 +1266,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/12/']</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2014-12-10T15:59:50.509000Z</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.323000Z</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/9/</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Biggs Darklighter</t>
         </is>
@@ -1253,30 +1353,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/38/']</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/48/', 'https://swapi.dev/api/starships/59/', 'https://swapi.dev/api/starships/64/', 'https://swapi.dev/api/starships/65/', 'https://swapi.dev/api/starships/74/']</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2014-12-10T16:16:29.192000Z</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.325000Z</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/10/</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Obi-Wan Kenobi</t>
         </is>
@@ -1330,30 +1440,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/44/', 'https://swapi.dev/api/vehicles/46/']</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/39/', 'https://swapi.dev/api/starships/59/', 'https://swapi.dev/api/starships/65/']</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2014-12-10T16:20:44.310000Z</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.327000Z</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/11/</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Anakin Skywalker</t>
         </is>
@@ -1407,7 +1527,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1417,20 +1537,30 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2014-12-10T16:26:56.138000Z</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.330000Z</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/12/</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Wilhuff Tarkin</t>
         </is>
@@ -1484,30 +1614,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/3/']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/19/']</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/10/', 'https://swapi.dev/api/starships/22/']</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2014-12-10T16:42:45.066000Z</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.332000Z</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/13/</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Chewbacca</t>
         </is>
@@ -1561,30 +1701,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/10/', 'https://swapi.dev/api/starships/22/']</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2014-12-10T16:49:14.582000Z</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.334000Z</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/14/</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Han Solo</t>
         </is>
@@ -1638,30 +1788,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/4/']</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>2014-12-10T17:03:30.334000Z</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.336000Z</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/15/</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Greedo</t>
         </is>
@@ -1715,30 +1875,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/5/']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>2014-12-10T17:11:31.638000Z</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.338000Z</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/16/</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Jabba Desilijic Tiure</t>
         </is>
@@ -1792,30 +1962,40 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/14/']</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/12/']</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2014-12-12T11:08:06.469000Z</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.341000Z</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/18/</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Wedge Antilles</t>
         </is>
@@ -1869,30 +2049,40 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/12/']</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2014-12-12T11:16:56.569000Z</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.343000Z</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/19/</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Jek Tono Porkins</t>
         </is>
@@ -1946,30 +2136,40 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/6/']</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>2014-12-15T12:26:01.042000Z</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.345000Z</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/20/</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Yoda</t>
         </is>
@@ -2023,7 +2223,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2033,20 +2233,30 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>2014-12-15T12:48:05.971000Z</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.347000Z</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/21/</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Palpatine</t>
         </is>
@@ -2100,30 +2310,40 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/21/']</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2014-12-15T12:49:32.457000Z</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.349000Z</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/22/</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Boba Fett</t>
         </is>
@@ -2177,30 +2397,40 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/2/']</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>2014-12-15T12:51:10.076000Z</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.351000Z</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/23/</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>IG-88</t>
         </is>
@@ -2254,30 +2484,40 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/7/']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>2014-12-15T12:53:49.297000Z</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.355000Z</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/24/</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Bossk</t>
         </is>
@@ -2331,30 +2571,40 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/10/']</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2014-12-15T12:56:32.683000Z</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.357000Z</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/25/</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Lando Calrissian</t>
         </is>
@@ -2408,7 +2658,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2418,20 +2668,30 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>2014-12-15T13:01:57.178000Z</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.359000Z</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/26/</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Lobot</t>
         </is>
@@ -2485,30 +2745,40 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/8/']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>2014-12-18T11:07:50.584000Z</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.362000Z</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/27/</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Ackbar</t>
         </is>
@@ -2562,7 +2832,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2572,20 +2842,30 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>2014-12-18T11:12:38.895000Z</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.364000Z</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/28/</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Mon Mothma</t>
         </is>
@@ -2639,30 +2919,40 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/28/']</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2014-12-18T11:16:33.020000Z</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.367000Z</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/29/</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Arvel Crynyd</t>
         </is>
@@ -2716,30 +3006,40 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/9/']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>2014-12-18T11:21:58.954000Z</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.369000Z</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/30/</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Wicket Systri Warrick</t>
         </is>
@@ -2793,30 +3093,40 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/species/10/']</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/10/']</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>2014-12-18T11:26:18.541000Z</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.371000Z</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/31/</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>Nien Nunb</t>
         </is>
@@ -2870,30 +3180,40 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/4/']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/38/']</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2014-12-19T16:54:53.618000Z</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.375000Z</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/32/</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Qui-Gon Jinn</t>
         </is>
@@ -2947,30 +3267,40 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/11/']</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>2014-12-19T17:05:57.357000Z</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.377000Z</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/33/</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Nute Gunray</t>
         </is>
@@ -3024,7 +3354,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3034,20 +3364,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>2014-12-19T17:21:45.915000Z</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.379000Z</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/34/</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>Finis Valorum</t>
         </is>
@@ -3101,30 +3441,40 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/39/', 'https://swapi.dev/api/starships/49/', 'https://swapi.dev/api/starships/64/']</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>2014-12-19T17:28:26.926000Z</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.381000Z</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/35/</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>Padmé Amidala</t>
         </is>
@@ -3178,30 +3528,40 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/12/']</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>2014-12-19T17:29:32.489000Z</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.383000Z</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/36/</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>Jar Jar Binks</t>
         </is>
@@ -3255,30 +3615,40 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/12/']</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>2014-12-19T17:32:56.741000Z</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.385000Z</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/37/</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>Roos Tarpals</t>
         </is>
@@ -3332,30 +3702,40 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/12/']</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>2014-12-19T17:33:38.909000Z</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.388000Z</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/38/</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>Rugor Nass</t>
         </is>
@@ -3409,30 +3789,40 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/40/']</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>2014-12-19T17:45:01.522000Z</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.392000Z</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/39/</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>Ric Olié</t>
         </is>
@@ -3486,30 +3876,40 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/13/']</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>2014-12-19T17:48:54.647000Z</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.395000Z</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/40/</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>Watto</t>
         </is>
@@ -3563,30 +3963,40 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/14/']</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>2014-12-19T17:53:02.586000Z</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.397000Z</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/41/</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>Sebulba</t>
         </is>
@@ -3640,7 +4050,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3650,20 +4060,30 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>2014-12-19T17:55:43.348000Z</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.399000Z</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/42/</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>Quarsh Panaka</t>
         </is>
@@ -3717,7 +4137,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3727,20 +4147,30 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>2014-12-19T17:57:41.191000Z</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.401000Z</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/43/</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>Shmi Skywalker</t>
         </is>
@@ -3794,30 +4224,40 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/4/']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/22/']</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/42/']</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/41/']</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>2014-12-19T18:00:41.929000Z</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.403000Z</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/44/</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>Darth Maul</t>
         </is>
@@ -3871,30 +4311,40 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/15/']</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>2014-12-20T09:47:02.512000Z</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.407000Z</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/45/</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>Bib Fortuna</t>
         </is>
@@ -3948,30 +4398,40 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/15/']</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>2014-12-20T09:48:01.172000Z</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.409000Z</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/46/</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>Ayla Secura</t>
         </is>
@@ -4025,30 +4485,40 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/16/']</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>2014-12-20T09:53:15.086000Z</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.410000Z</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/47/</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>Ratts Tyerel</t>
         </is>
@@ -4102,30 +4572,40 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/17/']</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>2014-12-20T09:57:31.858000Z</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.414000Z</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/48/</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>Dud Bolt</t>
         </is>
@@ -4179,30 +4659,40 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/18/']</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>2014-12-20T10:02:12.223000Z</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.416000Z</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/49/</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>Gasgano</t>
         </is>
@@ -4256,30 +4746,40 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/19/']</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>2014-12-20T10:08:33.777000Z</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.417000Z</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/50/</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>Ben Quadinaros</t>
         </is>
@@ -4333,7 +4833,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4343,20 +4843,30 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>2014-12-20T10:12:30.846000Z</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.420000Z</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/51/</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>Mace Windu</t>
         </is>
@@ -4410,30 +4920,40 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/20/']</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>2014-12-20T10:15:32.293000Z</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.422000Z</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/52/</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>Ki-Adi-Mundi</t>
         </is>
@@ -4487,30 +5007,40 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/21/']</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>2014-12-20T10:18:57.202000Z</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.424000Z</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/53/</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>Kit Fisto</t>
         </is>
@@ -4564,30 +5094,40 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/22/']</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>2014-12-20T10:26:47.902000Z</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.427000Z</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/54/</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>Eeth Koth</t>
         </is>
@@ -4641,30 +5181,40 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/23/']</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>2014-12-20T10:29:11.661000Z</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.432000Z</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/55/</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>Adi Gallia</t>
         </is>
@@ -4718,30 +5268,40 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/24/']</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>2014-12-20T10:32:11.669000Z</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.434000Z</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/56/</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>Saesee Tiin</t>
         </is>
@@ -4795,30 +5355,40 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/25/']</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
           <t>2014-12-20T10:34:48.725000Z</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.437000Z</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/57/</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>Yarael Poof</t>
         </is>
@@ -4872,30 +5442,40 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/species/26/']</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/48/']</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>2014-12-20T10:49:19.859000Z</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.439000Z</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/58/</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>Plo Koon</t>
         </is>
@@ -4949,30 +5529,40 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/27/']</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>2014-12-20T10:53:26.457000Z</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.442000Z</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/59/</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>Mas Amedda</t>
         </is>
@@ -5026,30 +5616,40 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/39/']</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>2014-12-20T11:10:10.381000Z</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.445000Z</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/60/</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>Gregar Typho</t>
         </is>
@@ -5103,7 +5703,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5113,20 +5713,30 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>2014-12-20T11:11:39.630000Z</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.449000Z</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/61/</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>Cordé</t>
         </is>
@@ -5180,7 +5790,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5190,20 +5800,30 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
           <t>2014-12-20T15:59:03.958000Z</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.451000Z</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/62/</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>Cliegg Lars</t>
         </is>
@@ -5257,30 +5877,40 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/28/']</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
           <t>2014-12-20T16:40:43.977000Z</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.453000Z</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/63/</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>Poggle the Lesser</t>
         </is>
@@ -5334,30 +5964,40 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/29/']</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>2014-12-20T16:45:53.668000Z</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.455000Z</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/64/</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>Luminara Unduli</t>
         </is>
@@ -5411,30 +6051,40 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/29/']</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
           <t>2014-12-20T16:46:40.440000Z</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.457000Z</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/65/</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>Barriss Offee</t>
         </is>
@@ -5488,30 +6138,40 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/1/']</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>2014-12-20T16:49:14.640000Z</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.460000Z</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/66/</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>Dormé</t>
         </is>
@@ -5565,30 +6225,40 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/1/']</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/55/']</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
         <is>
           <t>2014-12-20T16:52:14.726000Z</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.462000Z</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/67/</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>Dooku</t>
         </is>
@@ -5642,30 +6312,40 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/1/']</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
           <t>2014-12-20T16:53:08.575000Z</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.463000Z</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/68/</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>Bail Prestor Organa</t>
         </is>
@@ -5719,7 +6399,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5729,20 +6409,30 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
           <t>2014-12-20T16:54:41.620000Z</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.465000Z</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/69/</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>Jango Fett</t>
         </is>
@@ -5796,30 +6486,40 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/5/']</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/30/']</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/45/']</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>2014-12-20T16:57:44.471000Z</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.468000Z</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/70/</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>Zam Wesell</t>
         </is>
@@ -5873,30 +6573,40 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/31/']</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>2014-12-20T17:28:27.248000Z</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.470000Z</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/71/</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>Dexter Jettster</t>
         </is>
@@ -5950,30 +6660,40 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/32/']</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>2014-12-20T17:30:50.416000Z</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.473000Z</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/72/</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>Lama Su</t>
         </is>
@@ -6027,30 +6747,40 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/32/']</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>2014-12-20T17:31:21.195000Z</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.474000Z</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/73/</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>Taun We</t>
         </is>
@@ -6104,30 +6834,40 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/1/']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>2014-12-20T17:32:51.996000Z</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.476000Z</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/74/</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>Jocasta Nu</t>
         </is>
@@ -6181,7 +6921,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6191,20 +6931,30 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
           <t>2014-12-20T17:43:36.409000Z</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.478000Z</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/75/</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>R4-P17</t>
         </is>
@@ -6258,30 +7008,40 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/33/']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>2014-12-20T17:53:52.607000Z</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.481000Z</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/76/</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>Wat Tambor</t>
         </is>
@@ -6335,30 +7095,40 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/34/']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>2014-12-20T17:58:17.049000Z</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.484000Z</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/77/</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>San Hill</t>
         </is>
@@ -6412,30 +7182,40 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/35/']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
           <t>2014-12-20T18:44:01.103000Z</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.486000Z</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/78/</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>Shaak Ti</t>
         </is>
@@ -6489,30 +7269,40 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/36/']</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/60/']</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/74/']</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>2014-12-20T19:43:53.348000Z</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.488000Z</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/79/</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>Grievous</t>
         </is>
@@ -6566,30 +7356,40 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/3/']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
           <t>2014-12-20T19:46:34.209000Z</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.491000Z</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/80/</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>Tarfful</t>
         </is>
@@ -6643,7 +7443,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6653,20 +7453,30 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
           <t>2014-12-20T19:49:35.583000Z</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.493000Z</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/81/</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>Raymus Antilles</t>
         </is>
@@ -6720,7 +7530,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6730,20 +7540,30 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
           <t>2014-12-20T20:18:37.619000Z</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.496000Z</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/82/</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>Sly Moore</t>
         </is>
@@ -6797,30 +7617,40 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/37/']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
           <t>2014-12-20T20:35:04.260000Z</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.498000Z</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/83/</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>Tion Medon</t>
         </is>
@@ -6837,7 +7667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,15 +7723,25 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>residents</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>created</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>edited</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
@@ -6953,15 +7793,25 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/1/', 'https://swapi.dev/api/people/2/', 'https://swapi.dev/api/people/4/', 'https://swapi.dev/api/people/6/', 'https://swapi.dev/api/people/7/', 'https://swapi.dev/api/people/8/', 'https://swapi.dev/api/people/9/', 'https://swapi.dev/api/people/11/', 'https://swapi.dev/api/people/43/', 'https://swapi.dev/api/people/62/']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>2014-12-09T13:50:49.641000Z</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.411000Z</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/1/</t>
         </is>
@@ -7013,15 +7863,25 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/5/', 'https://swapi.dev/api/people/68/', 'https://swapi.dev/api/people/81/']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>2014-12-10T11:35:48.479000Z</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.420000Z</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/2/</t>
         </is>
@@ -7073,15 +7933,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/1/']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>2014-12-10T11:37:19.144000Z</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.421000Z</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/3/</t>
         </is>
@@ -7131,15 +8001,25 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/2/']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>2014-12-10T11:39:13.934000Z</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.423000Z</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/4/</t>
         </is>
@@ -7189,15 +8069,25 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>2014-12-10T11:42:22.590000Z</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.425000Z</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/5/</t>
         </is>
@@ -7249,15 +8139,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/26/']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/2/']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>2014-12-10T11:43:55.240000Z</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.427000Z</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/6/</t>
         </is>
@@ -7309,15 +8209,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/30/']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/3/']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>2014-12-10T11:50:29.349000Z</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.429000Z</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/7/</t>
         </is>
@@ -7369,15 +8279,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/3/', 'https://swapi.dev/api/people/21/', 'https://swapi.dev/api/people/35/', 'https://swapi.dev/api/people/36/', 'https://swapi.dev/api/people/37/', 'https://swapi.dev/api/people/38/', 'https://swapi.dev/api/people/39/', 'https://swapi.dev/api/people/42/', 'https://swapi.dev/api/people/60/', 'https://swapi.dev/api/people/61/', 'https://swapi.dev/api/people/66/']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>2014-12-10T11:52:31.066000Z</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.430000Z</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/8/</t>
         </is>
@@ -7429,15 +8349,25 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/34/', 'https://swapi.dev/api/people/55/', 'https://swapi.dev/api/people/74/']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>2014-12-10T11:54:13.921000Z</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.432000Z</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/9/</t>
         </is>
@@ -7489,15 +8419,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/22/', 'https://swapi.dev/api/people/72/', 'https://swapi.dev/api/people/73/']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/5/']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>2014-12-10T12:45:06.577000Z</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.434000Z</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/10/</t>
         </is>
@@ -7549,15 +8489,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/63/']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/5/']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>2014-12-10T12:47:22.350000Z</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.437000Z</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/11/</t>
         </is>
@@ -7609,15 +8559,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/83/']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>2014-12-10T12:49:01.491000Z</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.439000Z</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/12/</t>
         </is>
@@ -7669,15 +8629,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>2014-12-10T12:50:16.526000Z</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.440000Z</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/13/</t>
         </is>
@@ -7729,15 +8699,25 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/13/', 'https://swapi.dev/api/people/80/']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>2014-12-10T13:32:00.124000Z</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.442000Z</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/14/</t>
         </is>
@@ -7789,15 +8769,25 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>2014-12-10T13:33:46.405000Z</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.444000Z</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/15/</t>
         </is>
@@ -7849,15 +8839,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>2014-12-10T13:43:39.139000Z</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.446000Z</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/16/</t>
         </is>
@@ -7909,15 +8909,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>2014-12-10T13:44:50.397000Z</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.447000Z</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/17/</t>
         </is>
@@ -7969,15 +8979,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/33/']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>2014-12-10T13:46:28.704000Z</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.449000Z</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/18/</t>
         </is>
@@ -8029,15 +9049,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>2014-12-10T13:47:46.874000Z</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.450000Z</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/19/</t>
         </is>
@@ -8087,15 +9117,25 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/10/']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>2014-12-10T16:16:26.566000Z</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.452000Z</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/20/</t>
         </is>
@@ -8147,15 +9187,25 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/12/']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>2014-12-10T16:26:54.384000Z</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.454000Z</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/21/</t>
         </is>
@@ -8207,15 +9257,25 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/14/', 'https://swapi.dev/api/people/18/']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>2014-12-10T16:49:12.453000Z</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.456000Z</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/22/</t>
         </is>
@@ -8267,15 +9327,25 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/15/']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>2014-12-10T17:03:28.110000Z</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.458000Z</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/23/</t>
         </is>
@@ -8327,15 +9397,25 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/16/']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>2014-12-10T17:11:29.452000Z</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.460000Z</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/24/</t>
         </is>
@@ -8387,15 +9467,25 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>2014-12-10T17:23:29.896000Z</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.461000Z</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/25/</t>
         </is>
@@ -8447,15 +9537,25 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/19/']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>2014-12-12T11:16:55.078000Z</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.463000Z</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/26/</t>
         </is>
@@ -8507,15 +9607,25 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/films/2/']</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>2014-12-15T12:23:41.661000Z</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.464000Z</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/27/</t>
         </is>
@@ -8565,15 +9675,25 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/20/', 'https://swapi.dev/api/people/23/', 'https://swapi.dev/api/people/29/', 'https://swapi.dev/api/people/32/', 'https://swapi.dev/api/people/75/']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>2014-12-15T12:25:59.569000Z</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.466000Z</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/28/</t>
         </is>
@@ -8625,15 +9745,25 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/24/']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>2014-12-15T12:53:47.695000Z</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.468000Z</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/29/</t>
         </is>
@@ -8685,15 +9815,25 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/25/']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>2014-12-15T12:56:31.121000Z</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.469000Z</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/30/</t>
         </is>
@@ -8745,15 +9885,25 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/27/']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>2014-12-18T11:07:01.792000Z</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.471000Z</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/31/</t>
         </is>
@@ -8805,15 +9955,25 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/28/']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>2014-12-18T11:11:51.872000Z</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.472000Z</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/32/</t>
         </is>
@@ -8865,15 +10025,25 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/31/']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>2014-12-18T11:25:40.243000Z</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.474000Z</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/33/</t>
         </is>
@@ -8925,15 +10095,25 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/40/']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>2014-12-19T17:47:54.403000Z</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.476000Z</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/34/</t>
         </is>
@@ -8985,15 +10165,25 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/41/']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>2014-12-19T17:52:13.106000Z</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.478000Z</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/35/</t>
         </is>
@@ -9045,15 +10235,25 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/44/']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>2014-12-19T18:00:40.142000Z</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.480000Z</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/36/</t>
         </is>
@@ -9105,15 +10305,25 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/45/', 'https://swapi.dev/api/people/46/']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>2014-12-20T09:46:25.740000Z</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.481000Z</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/37/</t>
         </is>
@@ -9163,15 +10373,25 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/47/']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>2014-12-20T09:52:23.452000Z</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.483000Z</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/38/</t>
         </is>
@@ -9223,15 +10443,25 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/48/']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>2014-12-20T09:56:58.874000Z</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.485000Z</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/39/</t>
         </is>
@@ -9281,15 +10511,25 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/49/']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>2014-12-20T10:01:37.395000Z</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.487000Z</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/40/</t>
         </is>
@@ -9341,15 +10581,25 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/50/']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>2014-12-20T10:07:29.578000Z</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.489000Z</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/41/</t>
         </is>
@@ -9401,15 +10651,25 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/51/']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
           <t>2014-12-20T10:12:28.980000Z</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.491000Z</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/42/</t>
         </is>
@@ -9461,15 +10721,25 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/52/']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>2014-12-20T10:14:48.178000Z</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.493000Z</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/43/</t>
         </is>
@@ -9521,15 +10791,25 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/53/']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>2014-12-20T10:18:26.110000Z</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.495000Z</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/44/</t>
         </is>
@@ -9579,15 +10859,25 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/54/']</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>2014-12-20T10:26:05.788000Z</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.497000Z</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/45/</t>
         </is>
@@ -9637,15 +10927,25 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>2014-12-20T10:28:31.117000Z</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.498000Z</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/46/</t>
         </is>
@@ -9695,15 +10995,25 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/56/']</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>2014-12-20T10:31:32.413000Z</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.500000Z</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/47/</t>
         </is>
@@ -9753,15 +11063,25 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/57/']</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>2014-12-20T10:34:08.249000Z</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.502000Z</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/48/</t>
         </is>
@@ -9811,15 +11131,25 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/58/']</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
           <t>2014-12-20T10:48:36.141000Z</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.504000Z</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/49/</t>
         </is>
@@ -9871,15 +11201,25 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/59/']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>2014-12-20T10:52:51.524000Z</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.506000Z</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/50/</t>
         </is>
@@ -9929,15 +11269,25 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/64/', 'https://swapi.dev/api/people/65/']</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>2014-12-20T16:44:46.318000Z</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.508000Z</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/51/</t>
         </is>
@@ -9987,15 +11337,25 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/67/']</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>2014-12-20T16:52:13.357000Z</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.510000Z</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/52/</t>
         </is>
@@ -10045,15 +11405,25 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/69/']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>2014-12-20T16:54:39.909000Z</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.512000Z</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/53/</t>
         </is>
@@ -10103,15 +11473,25 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/70/']</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>2014-12-20T16:56:37.250000Z</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.514000Z</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/54/</t>
         </is>
@@ -10163,15 +11543,25 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/71/']</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
           <t>2014-12-20T17:27:41.286000Z</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.516000Z</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/55/</t>
         </is>
@@ -10223,15 +11613,25 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/76/']</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
           <t>2014-12-20T17:50:47.864000Z</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.517000Z</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/56/</t>
         </is>
@@ -10283,15 +11683,25 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/77/']</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>2014-12-20T17:57:47.420000Z</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.519000Z</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/57/</t>
         </is>
@@ -10341,15 +11751,25 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/78/']</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>2014-12-20T18:43:14.049000Z</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.521000Z</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/58/</t>
         </is>
@@ -10401,15 +11821,25 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/79/']</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>2014-12-20T19:43:51.278000Z</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.523000Z</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/59/</t>
         </is>
@@ -10459,15 +11889,25 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/people/82/']</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>2014-12-20T20:18:36.256000Z</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>2014-12-20T20:58:18.525000Z</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/planets/60/</t>
         </is>
